--- a/scene_cat_exp_2023.2.2/input_files/2_scenecat_categorization_kitchens_2.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/2_scenecat_categorization_kitchens_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -512,29 +512,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_hc49v.png</t>
+          <t>stimuli/img_xu1p3.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>70.95121951219512</v>
+        <v>75.27659574468085</v>
       </c>
       <c r="N2">
-        <v>53.31707317073171</v>
+        <v>56.68085106382978</v>
       </c>
       <c r="O2">
-        <v>62.13414634146342</v>
+        <v>65.97872340425532</v>
       </c>
       <c r="P2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T2">
         <v>6</v>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -574,53 +574,53 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_as3da.png</t>
+          <t>stimuli/img_71mhq.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>84.53125</v>
+        <v>69.34210526315789</v>
       </c>
       <c r="N3">
-        <v>63</v>
+        <v>47.02631578947368</v>
       </c>
       <c r="O3">
-        <v>73.765625</v>
+        <v>58.18421052631579</v>
       </c>
       <c r="P3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,53 +651,53 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_mqnl6.png</t>
+          <t>stimuli/img_as3da.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>70.7560975609756</v>
+        <v>84.53125</v>
       </c>
       <c r="N4">
-        <v>45.68292682926829</v>
+        <v>63</v>
       </c>
       <c r="O4">
-        <v>58.21951219512195</v>
+        <v>73.765625</v>
       </c>
       <c r="P4">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -805,53 +805,53 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_uspja.png</t>
+          <t>stimuli/img_abobq.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>54.90909090909091</v>
+        <v>75.18421052631579</v>
       </c>
       <c r="N6">
-        <v>29.12121212121212</v>
+        <v>54.13157894736842</v>
       </c>
       <c r="O6">
-        <v>42.01515151515152</v>
+        <v>64.65789473684211</v>
       </c>
       <c r="P6">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -882,53 +882,53 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_qmand.png</t>
+          <t>stimuli/img_088sa.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>86.11764705882354</v>
+        <v>67.36363636363636</v>
       </c>
       <c r="N7">
-        <v>71.02941176470588</v>
+        <v>42.12121212121212</v>
       </c>
       <c r="O7">
-        <v>78.57352941176471</v>
+        <v>54.74242424242424</v>
       </c>
       <c r="P7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -974,38 +974,38 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_5mw7y.png</t>
+          <t>stimuli/img_huisn.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>72.65909090909091</v>
+        <v>73.63888888888889</v>
       </c>
       <c r="N8">
-        <v>50.86363636363637</v>
+        <v>46.36111111111111</v>
       </c>
       <c r="O8">
-        <v>61.76136363636364</v>
+        <v>60</v>
       </c>
       <c r="P8">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1051,38 +1051,38 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_u9f9l.png</t>
+          <t>stimuli/img_uspja.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>77.78571428571429</v>
+        <v>54.90909090909091</v>
       </c>
       <c r="N9">
-        <v>57.25</v>
+        <v>29.12121212121212</v>
       </c>
       <c r="O9">
-        <v>67.51785714285714</v>
+        <v>42.01515151515152</v>
       </c>
       <c r="P9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1113,53 +1113,53 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_oz18d.png</t>
+          <t>stimuli/img_h13c3.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>78.93939393939394</v>
+        <v>71.80555555555556</v>
       </c>
       <c r="N10">
-        <v>61.03030303030303</v>
+        <v>47.86111111111111</v>
       </c>
       <c r="O10">
-        <v>69.98484848484848</v>
+        <v>59.83333333333334</v>
       </c>
       <c r="P10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1190,53 +1190,53 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_z5osu.png</t>
+          <t>stimuli/img_d3t0o.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>71.42857142857143</v>
+        <v>66.95121951219512</v>
       </c>
       <c r="N11">
-        <v>47.34285714285714</v>
+        <v>42.92682926829269</v>
       </c>
       <c r="O11">
-        <v>59.38571428571429</v>
+        <v>54.9390243902439</v>
       </c>
       <c r="P11">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1267,53 +1267,53 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_b89t4.png</t>
+          <t>stimuli/img_qmand.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>71.41463414634147</v>
+        <v>86.11764705882354</v>
       </c>
       <c r="N12">
-        <v>47.85365853658536</v>
+        <v>71.02941176470588</v>
       </c>
       <c r="O12">
-        <v>59.63414634146342</v>
+        <v>78.57352941176471</v>
       </c>
       <c r="P12">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1344,53 +1344,53 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_t1cr9.png</t>
+          <t>stimuli/img_02alv.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>73.66666666666667</v>
+        <v>61.8</v>
       </c>
       <c r="N13">
-        <v>53.51515151515152</v>
+        <v>37.8</v>
       </c>
       <c r="O13">
-        <v>63.59090909090909</v>
+        <v>49.8</v>
       </c>
       <c r="P13">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1412,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1421,53 +1421,53 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_8fpog.png</t>
+          <t>stimuli/img_b89t4.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>85.41666666666667</v>
+        <v>71.41463414634147</v>
       </c>
       <c r="N14">
-        <v>72.30555555555556</v>
+        <v>47.85365853658536</v>
       </c>
       <c r="O14">
-        <v>78.86111111111111</v>
+        <v>59.63414634146342</v>
       </c>
       <c r="P14">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1513,38 +1513,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_h1yyu.png</t>
+          <t>stimuli/img_u9f9l.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>64.85294117647059</v>
+        <v>77.78571428571429</v>
       </c>
       <c r="N15">
-        <v>46.61764705882353</v>
+        <v>57.25</v>
       </c>
       <c r="O15">
-        <v>55.73529411764706</v>
+        <v>67.51785714285714</v>
       </c>
       <c r="P15">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V15">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1575,53 +1575,53 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_l9t30.png</t>
+          <t>stimuli/img_qrc78.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>67.2</v>
+        <v>76.2</v>
       </c>
       <c r="N16">
-        <v>43.14285714285715</v>
+        <v>59.875</v>
       </c>
       <c r="O16">
-        <v>55.17142857142858</v>
+        <v>68.03749999999999</v>
       </c>
       <c r="P16">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1667,38 +1667,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_qbkdt.png</t>
+          <t>stimuli/img_oz18d.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>69.45714285714286</v>
+        <v>78.93939393939394</v>
       </c>
       <c r="N17">
-        <v>50.02857142857143</v>
+        <v>61.03030303030303</v>
       </c>
       <c r="O17">
-        <v>59.74285714285715</v>
+        <v>69.98484848484848</v>
       </c>
       <c r="P17">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1729,53 +1729,53 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_hfz8w.png</t>
+          <t>stimuli/img_bdz92.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>55.46153846153846</v>
+        <v>63.72222222222222</v>
       </c>
       <c r="N18">
-        <v>27.28205128205128</v>
+        <v>42.63888888888889</v>
       </c>
       <c r="O18">
-        <v>41.37179487179487</v>
+        <v>53.18055555555556</v>
       </c>
       <c r="P18">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1806,53 +1806,53 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_k3abb.png</t>
+          <t>stimuli/img_mqnl6.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>35.54054054054054</v>
+        <v>70.7560975609756</v>
       </c>
       <c r="N19">
-        <v>16.54054054054054</v>
+        <v>45.68292682926829</v>
       </c>
       <c r="O19">
-        <v>26.04054054054054</v>
+        <v>58.21951219512195</v>
       </c>
       <c r="P19">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1874,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1883,35 +1883,35 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_71mhq.png</t>
+          <t>stimuli/img_z5osu.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>69.34210526315789</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="N20">
-        <v>47.02631578947368</v>
+        <v>47.34285714285714</v>
       </c>
       <c r="O20">
-        <v>58.18421052631579</v>
+        <v>59.38571428571429</v>
       </c>
       <c r="P20">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1975,38 +1975,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_lgxzn.png</t>
+          <t>stimuli/img_g9od8.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>73.11363636363636</v>
+        <v>59.34883720930232</v>
       </c>
       <c r="N21">
-        <v>49.97727272727273</v>
+        <v>37.83720930232558</v>
       </c>
       <c r="O21">
-        <v>61.54545454545455</v>
+        <v>48.59302325581395</v>
       </c>
       <c r="P21">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>222</v>
+        <v>102</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2052,38 +2052,38 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_57os5.png</t>
+          <t>stimuli/img_t1cr9.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>82.70588235294117</v>
+        <v>73.66666666666667</v>
       </c>
       <c r="N22">
-        <v>65.73529411764706</v>
+        <v>53.51515151515152</v>
       </c>
       <c r="O22">
-        <v>74.22058823529412</v>
+        <v>63.59090909090909</v>
       </c>
       <c r="P22">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V22">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2105,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2129,38 +2129,38 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_01w8b.png</t>
+          <t>stimuli/img_8fpog.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>78.91891891891892</v>
+        <v>85.41666666666667</v>
       </c>
       <c r="N23">
-        <v>61.21621621621622</v>
+        <v>72.30555555555556</v>
       </c>
       <c r="O23">
-        <v>70.06756756756756</v>
+        <v>78.86111111111111</v>
       </c>
       <c r="P23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V23">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2182,7 +2182,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2206,38 +2206,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_5949k.png</t>
+          <t>stimuli/img_h1yyu.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>60.8</v>
+        <v>64.85294117647059</v>
       </c>
       <c r="N24">
-        <v>39.2</v>
+        <v>46.61764705882353</v>
       </c>
       <c r="O24">
-        <v>50</v>
+        <v>55.73529411764706</v>
       </c>
       <c r="P24">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2259,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2283,38 +2283,38 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_ensho.png</t>
+          <t>stimuli/img_l9t30.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>72.7948717948718</v>
+        <v>67.2</v>
       </c>
       <c r="N25">
-        <v>54.56410256410256</v>
+        <v>43.14285714285715</v>
       </c>
       <c r="O25">
-        <v>63.67948717948718</v>
+        <v>55.17142857142858</v>
       </c>
       <c r="P25">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V25">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2336,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2360,38 +2360,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_fhm45.png</t>
+          <t>stimuli/img_qbkdt.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>76.75</v>
+        <v>69.45714285714286</v>
       </c>
       <c r="N26">
-        <v>57.71875</v>
+        <v>50.02857142857143</v>
       </c>
       <c r="O26">
-        <v>67.234375</v>
+        <v>59.74285714285715</v>
       </c>
       <c r="P26">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2413,7 +2413,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2437,38 +2437,1116 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>stimuli/img_hfz8w.png</t>
+        </is>
+      </c>
+      <c r="M27">
+        <v>55.46153846153846</v>
+      </c>
+      <c r="N27">
+        <v>27.28205128205128</v>
+      </c>
+      <c r="O27">
+        <v>41.37179487179487</v>
+      </c>
+      <c r="P27">
+        <v>39</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>108</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>stimuli/img_4974k.png</t>
+        </is>
+      </c>
+      <c r="M28">
+        <v>79.89130434782609</v>
+      </c>
+      <c r="N28">
+        <v>58.19565217391305</v>
+      </c>
+      <c r="O28">
+        <v>69.04347826086956</v>
+      </c>
+      <c r="P28">
+        <v>46</v>
+      </c>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+      <c r="R28">
+        <v>7</v>
+      </c>
+      <c r="S28">
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <v>7</v>
+      </c>
+      <c r="U28">
+        <v>7</v>
+      </c>
+      <c r="V28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>109</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>stimuli/img_k3abb.png</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>35.54054054054054</v>
+      </c>
+      <c r="N29">
+        <v>16.54054054054054</v>
+      </c>
+      <c r="O29">
+        <v>26.04054054054054</v>
+      </c>
+      <c r="P29">
+        <v>37</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>110</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>stimuli/img_fmgjx.png</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="N30">
+        <v>56.975</v>
+      </c>
+      <c r="O30">
+        <v>68.4375</v>
+      </c>
+      <c r="P30">
+        <v>40</v>
+      </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
+        <v>7</v>
+      </c>
+      <c r="U30">
+        <v>7</v>
+      </c>
+      <c r="V30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>111</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>stimuli/img_zh8ms.png</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>59.82608695652174</v>
+      </c>
+      <c r="N31">
+        <v>39.43478260869565</v>
+      </c>
+      <c r="O31">
+        <v>49.6304347826087</v>
+      </c>
+      <c r="P31">
+        <v>46</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>112</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>stimuli/img_uttnz.png</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>69.91891891891892</v>
+      </c>
+      <c r="N32">
+        <v>49.91891891891892</v>
+      </c>
+      <c r="O32">
+        <v>59.91891891891892</v>
+      </c>
+      <c r="P32">
+        <v>37</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>5</v>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>113</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>stimuli/img_57os5.png</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>82.70588235294117</v>
+      </c>
+      <c r="N33">
+        <v>65.73529411764706</v>
+      </c>
+      <c r="O33">
+        <v>74.22058823529412</v>
+      </c>
+      <c r="P33">
+        <v>34</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+      <c r="R33">
+        <v>9</v>
+      </c>
+      <c r="S33">
+        <v>9</v>
+      </c>
+      <c r="T33">
+        <v>9</v>
+      </c>
+      <c r="U33">
+        <v>9</v>
+      </c>
+      <c r="V33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>114</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>stimuli/img_01w8b.png</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>78.91891891891892</v>
+      </c>
+      <c r="N34">
+        <v>61.21621621621622</v>
+      </c>
+      <c r="O34">
+        <v>70.06756756756756</v>
+      </c>
+      <c r="P34">
+        <v>37</v>
+      </c>
+      <c r="Q34">
+        <v>8</v>
+      </c>
+      <c r="R34">
+        <v>8</v>
+      </c>
+      <c r="S34">
+        <v>8</v>
+      </c>
+      <c r="T34">
+        <v>8</v>
+      </c>
+      <c r="U34">
+        <v>8</v>
+      </c>
+      <c r="V34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>115</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>stimuli/img_5949k.png</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>60.8</v>
+      </c>
+      <c r="N35">
+        <v>39.2</v>
+      </c>
+      <c r="O35">
+        <v>50</v>
+      </c>
+      <c r="P35">
+        <v>35</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>116</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>stimuli/img_ensho.png</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>72.7948717948718</v>
+      </c>
+      <c r="N36">
+        <v>54.56410256410256</v>
+      </c>
+      <c r="O36">
+        <v>63.67948717948718</v>
+      </c>
+      <c r="P36">
+        <v>39</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>6</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+      <c r="V36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>117</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>stimuli/img_lpas9.png</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>59.36585365853659</v>
+      </c>
+      <c r="N37">
+        <v>39.09756097560975</v>
+      </c>
+      <c r="O37">
+        <v>49.23170731707317</v>
+      </c>
+      <c r="P37">
+        <v>41</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>4</v>
+      </c>
+      <c r="V37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>118</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>stimuli/img_twj5p.png</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>67.71739130434783</v>
+      </c>
+      <c r="N38">
+        <v>42.08695652173913</v>
+      </c>
+      <c r="O38">
+        <v>54.90217391304348</v>
+      </c>
+      <c r="P38">
+        <v>46</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>5</v>
+      </c>
+      <c r="V38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>119</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>stimuli/img_fhm45.png</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>76.75</v>
+      </c>
+      <c r="N39">
+        <v>57.71875</v>
+      </c>
+      <c r="O39">
+        <v>67.234375</v>
+      </c>
+      <c r="P39">
+        <v>32</v>
+      </c>
+      <c r="Q39">
+        <v>7</v>
+      </c>
+      <c r="R39">
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <v>7</v>
+      </c>
+      <c r="T39">
+        <v>7</v>
+      </c>
+      <c r="U39">
+        <v>7</v>
+      </c>
+      <c r="V39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>120</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>stimuli/img_faly8.png</t>
         </is>
       </c>
-      <c r="M27">
+      <c r="M40">
         <v>33.41176470588236</v>
       </c>
-      <c r="N27">
+      <c r="N40">
         <v>19.23529411764706</v>
       </c>
-      <c r="O27">
+      <c r="O40">
         <v>26.32352941176471</v>
       </c>
-      <c r="P27">
+      <c r="P40">
         <v>34</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>121</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>stimuli/img_lpr0l.png</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>77.04651162790698</v>
+      </c>
+      <c r="N41">
+        <v>59.86046511627907</v>
+      </c>
+      <c r="O41">
+        <v>68.45348837209303</v>
+      </c>
+      <c r="P41">
+        <v>43</v>
+      </c>
+      <c r="Q41">
+        <v>7</v>
+      </c>
+      <c r="R41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>7</v>
+      </c>
+      <c r="T41">
+        <v>7</v>
+      </c>
+      <c r="U41">
+        <v>7</v>
+      </c>
+      <c r="V41">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
